--- a/biology/Médecine/Dose_journalière_admissible/Dose_journalière_admissible.xlsx
+++ b/biology/Médecine/Dose_journalière_admissible/Dose_journalière_admissible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dose_journali%C3%A8re_admissible</t>
+          <t>Dose_journalière_admissible</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Valeur Toxicologique de Référence la plus utilisée pour protéger le consommateur est la Dose Journalière Admissible ou Acceptable ou DJA pour les seuls produits réglementés (en anglais : Acceptable Daily Intake ou ADI) et la Dose Journalière Tolérable (DJT) pour les contaminants naturels (en anglais : Tolerable Daily Intake ou TDI)[1].   La DJA ou la DJT est la quantité d'une substance qu'un individu peut ingérer chaque jour, sans risque pour sa santé. Elle est habituellement exprimée en mg de substance par kg de poids corporel et par jour[2]. La consommation maximale est donc, de fait, beaucoup plus faible pour un nourrisson que pour un individu adulte. Exemple : la DJA pour le Bisphénol A étant de 50 μg/kg/jour[3], la consommation maximale pour un adulte de 70 kg sera de 3,5 mg/jour alors que pour un nourrisson de 4 kg il lui suffira d'ingérer 0,2 mg de BPA par jour pour être en dépassement de cette DJA. 
-Le concept a été inventé par le professeur René Truhaut, membre de l'académie des sciences[4] et de l'académie d'agriculture. Il a été introduit pour la première fois en 1961 par le comité international mixte FAO-OMS d'experts sur les additifs alimentaires (JECFA) et plus tard utilisé par le Conseil de l'Europe[2].
-Dans le cadre des travaux d'expertise collective de la Direction de l'Évaluation des risques (DER), plusieurs types de valeurs sanitaires de référence (VR) sont produits et/ ou utilisés : des valeurs de toxicologiques de référence (VTR) qui comprennent les doses journalières admissibles (DJA), les doses journalières tolérables (DJT), les doses hebdomadaires tolérables (DHT) , etc.[5]...
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Valeur Toxicologique de Référence la plus utilisée pour protéger le consommateur est la Dose Journalière Admissible ou Acceptable ou DJA pour les seuls produits réglementés (en anglais : Acceptable Daily Intake ou ADI) et la Dose Journalière Tolérable (DJT) pour les contaminants naturels (en anglais : Tolerable Daily Intake ou TDI).   La DJA ou la DJT est la quantité d'une substance qu'un individu peut ingérer chaque jour, sans risque pour sa santé. Elle est habituellement exprimée en mg de substance par kg de poids corporel et par jour. La consommation maximale est donc, de fait, beaucoup plus faible pour un nourrisson que pour un individu adulte. Exemple : la DJA pour le Bisphénol A étant de 50 μg/kg/jour, la consommation maximale pour un adulte de 70 kg sera de 3,5 mg/jour alors que pour un nourrisson de 4 kg il lui suffira d'ingérer 0,2 mg de BPA par jour pour être en dépassement de cette DJA. 
+Le concept a été inventé par le professeur René Truhaut, membre de l'académie des sciences et de l'académie d'agriculture. Il a été introduit pour la première fois en 1961 par le comité international mixte FAO-OMS d'experts sur les additifs alimentaires (JECFA) et plus tard utilisé par le Conseil de l'Europe.
+Dans le cadre des travaux d'expertise collective de la Direction de l'Évaluation des risques (DER), plusieurs types de valeurs sanitaires de référence (VR) sont produits et/ ou utilisés : des valeurs de toxicologiques de référence (VTR) qui comprennent les doses journalières admissibles (DJA), les doses journalières tolérables (DJT), les doses hebdomadaires tolérables (DHT) , etc....
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dose_journali%C3%A8re_admissible</t>
+          <t>Dose_journalière_admissible</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Définition DJA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La DJA est calculée de façon empirique par projection d'une dose chez l'animal pour l'Homme, elle ne tient pas compte d'effets synergiques possibles avec d'autres substances, ni du stade de développement (fœtus, enfant, adulte). Elle est fixée par l'Europe pour la France à la suite d'un examen en principe de toutes les données et études scientifiques disponibles. 
-Le calcul de la dose journalière admissible pour l'homme est basé sur le seuil maximum de consommation au-delà duquel les premiers effets toxiques sont observables. Ces études sont réalisées en exposition aiguë la plupart du temps et parfois sur des expositions répétées sub-chroniques (90 jours), chronique (52 semaines) ou « vie entière » (deux ans) chez des rongeurs de laboratoire pour déterminer un seuil de toxicité. Ce seuil est aussi appelé « dose sans effet » (DSE) (ou NOAEL : No Observable Adverse Effect Level en anglais). La DJA est déterminée par les expérimentations animales et varie selon l'animal choisi[6]. On obtient alors la DJA en divisant par un facteur 10 à 100[6].
-Ainsi il existe une LRM (dose limite en résidu) permettant de contrôler les doses en pesticide dans ou sur un produit destiné à l'alimentation humaine ou animale[7]. Ce coefficient de sécurité varie suivant la classification de la substance active, par exemple il est de 10 pour les composés non cancérogènes[8].  
+Le calcul de la dose journalière admissible pour l'homme est basé sur le seuil maximum de consommation au-delà duquel les premiers effets toxiques sont observables. Ces études sont réalisées en exposition aiguë la plupart du temps et parfois sur des expositions répétées sub-chroniques (90 jours), chronique (52 semaines) ou « vie entière » (deux ans) chez des rongeurs de laboratoire pour déterminer un seuil de toxicité. Ce seuil est aussi appelé « dose sans effet » (DSE) (ou NOAEL : No Observable Adverse Effect Level en anglais). La DJA est déterminée par les expérimentations animales et varie selon l'animal choisi. On obtient alors la DJA en divisant par un facteur 10 à 100.
+Ainsi il existe une LRM (dose limite en résidu) permettant de contrôler les doses en pesticide dans ou sur un produit destiné à l'alimentation humaine ou animale. Ce coefficient de sécurité varie suivant la classification de la substance active, par exemple il est de 10 pour les composés non cancérogènes.  
 Une « DJA non spécifiée » est l’expression employée quand il n'est pas jugé nécessaire d'attribuer une DJA chiffrée à une substance, aucune étude n'ayant rapporté un quelconque risque aux doses habituelles.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dose_journali%C3%A8re_admissible</t>
+          <t>Dose_journalière_admissible</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Définition DJT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une dose journalière tolérable ou DJT est une estimation de la quantité d'une substance dans les aliments ou dans l'eau potable qui peut être ingérée chaque jour sans risques pour la santé du consommateur. Celle-ci est calculée sur base de données de laboratoire selon un seuil de toxicité[9]. Les DJT sont utilisées pour des substances chimiques celles se trouvant dans les aliments ou l'eau ou boissons tels que des additifs, résidus de pesticides, etc. Lorsqu’on parle de résidus de pesticides ou d’additifs alimentaires (conservateurs, émulsifiants, colorants et édulcorants), on peut également utiliser le terme de dose journalière admissible (DJA).
-DJA et DJT sont exprimés en fonction du poids corporel (mg/kg/J ou µg/kg/J de poids corporel)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une dose journalière tolérable ou DJT est une estimation de la quantité d'une substance dans les aliments ou dans l'eau potable qui peut être ingérée chaque jour sans risques pour la santé du consommateur. Celle-ci est calculée sur base de données de laboratoire selon un seuil de toxicité. Les DJT sont utilisées pour des substances chimiques celles se trouvant dans les aliments ou l'eau ou boissons tels que des additifs, résidus de pesticides, etc. Lorsqu’on parle de résidus de pesticides ou d’additifs alimentaires (conservateurs, émulsifiants, colorants et édulcorants), on peut également utiliser le terme de dose journalière admissible (DJA).
+DJA et DJT sont exprimés en fonction du poids corporel (mg/kg/J ou µg/kg/J de poids corporel).
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dose_journali%C3%A8re_admissible</t>
+          <t>Dose_journalière_admissible</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +595,15 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la DJA de quelques édulcorants :
-5 mg kg−1 j−1 de poids corporel pour la saccharine[10] ;
-7 mg kg−1 j−1 de poids corporel pour le cyclamate[11] ;
-15 mg kg−1 j−1 de poids corporel pour l'acésulfame potassium[12] ;
-40 mg kg−1 j−1 de poids corporel pour l'aspartame[13].
+5 mg kg−1 j−1 de poids corporel pour la saccharine ;
+7 mg kg−1 j−1 de poids corporel pour le cyclamate ;
+15 mg kg−1 j−1 de poids corporel pour l'acésulfame potassium ;
+40 mg kg−1 j−1 de poids corporel pour l'aspartame.
 Voici la DJA de quelques pesticides :
 0,04 mg kg−1 j−1 de poids corporel pour le Boscalid ;
 0,02 mg kg−1 j−1 de poids corporel pour le bixafen ;
